--- a/asset/csv/6.xlsx
+++ b/asset/csv/6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\main\GitHub\history-memorizer\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79538E29-ACAE-4933-ADCF-372FB8EB61F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2C9C04-6E22-43F4-AD0B-6ECDC826C5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>あ</t>
     <phoneticPr fontId="1"/>
@@ -94,16 +94,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>始皇帝の治世</t>
-    <rPh sb="0" eb="3">
-      <t>シコウテイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>チセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>秦による中国統一（前221）</t>
     <rPh sb="0" eb="1">
       <t>シン</t>
@@ -146,19 +136,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>法家の丞相の献策</t>
-    <rPh sb="0" eb="2">
-      <t>ホウカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウショウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>郡県制の全国整備→中央集権体制</t>
     <rPh sb="0" eb="3">
       <t>グンケンセイ</t>
@@ -368,6 +345,49 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>始皇帝</t>
+    <rPh sb="0" eb="3">
+      <t>シコウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>始皇帝の統治</t>
+    <rPh sb="0" eb="3">
+      <t>シコウテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>法家の丞相の献策で統治</t>
+    <rPh sb="0" eb="2">
+      <t>ホウカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>始皇帝の外征</t>
+    <rPh sb="0" eb="3">
+      <t>シコウテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガイセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -694,11 +714,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD4"/>
+  <dimension ref="A1:XFD6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.875" defaultRowHeight="18.75"/>
@@ -707,7 +727,7 @@
     <col min="2" max="8" width="40.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14 16384:16384">
+    <row r="1" spans="1:10 16384:16384">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -742,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14 16384:16384">
+    <row r="2" spans="1:10 16384:16384">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -755,69 +775,79 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:14 16384:16384">
+    <row r="3" spans="1:10 16384:16384">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10 16384:16384">
+      <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+    </row>
+    <row r="5" spans="1:10 16384:16384">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="L3" t="s">
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="M3" t="s">
+    </row>
+    <row r="6" spans="1:10 16384:16384">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="N3" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:14 16384:16384">
-      <c r="A4" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F6" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
